--- a/data/subject_heights.xlsx
+++ b/data/subject_heights.xlsx
@@ -1,46 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronin/Desktop/screenshots/imsi/imsi/pandas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7321BA13-F835-914E-A08B-C63195FE98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24980" windowHeight="19420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="subject_data" sheetId="1" r:id="rId1"/>
+    <sheet name="enrollment" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="18">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Agr, Cons, Env Sci</t>
+  </si>
+  <si>
+    <t>Applied Health Sci</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Fine &amp; Applied Arts</t>
+  </si>
+  <si>
+    <t>General Studies</t>
+  </si>
+  <si>
+    <t>Grainger Engineering</t>
+  </si>
+  <si>
+    <t>Liberal Arts &amp; Sci</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>School of Social Work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,13 +121,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,14 +420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,613 +438,749 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6.1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5.2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.23118969891572</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C5">
+        <v>4.2311896989157196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.22808396792555</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C6">
+        <v>6.2280839679255502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.38029873219165</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C7">
+        <v>4.3802987321916502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>5.23898598217308</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="C8">
+        <v>5.2389859821730802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>7.54548870848512</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C9">
+        <v>7.5454887084851201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.88778891087532</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C10">
+        <v>4.8877889108753196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.76057356502892</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="C11">
+        <v>4.7605735650289196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>5.26893677009179</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="C12">
+        <v>5.2689367700917904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3.85277151346697</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
-        <v>3.47028747635172</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="C14">
+        <v>3.4702874763517202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
-        <v>3.97996807949588</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="C15">
+        <v>3.9799680794958801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>3.98189646806457</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="C16">
+        <v>3.9818964680645701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
-        <v>6.87243362969915</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="C17">
+        <v>6.8724336296991497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="n">
-        <v>8.17286648496922</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="C18">
+        <v>8.1728664849692194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="n">
-        <v>3.90204541204196</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="C19">
+        <v>3.9020454120419599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="n">
-        <v>6.93647891801778</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="C20">
+        <v>6.9364789180177802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.90131917216303</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="C21">
+        <v>6.9013191721630296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="n">
-        <v>5.74958457189494</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="C22">
+        <v>5.7495845718949399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="n">
-        <v>7.03001158384939</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="C23">
+        <v>7.0300115838493902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="n">
-        <v>4.61574093289056</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="C24">
+        <v>4.6157409328905601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" t="n">
-        <v>5.61215620841074</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="C25">
+        <v>5.6121562084107399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.67527099865094</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" t="n">
-        <v>3.21450180188887</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="C27">
+        <v>3.2145018018888698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="n">
-        <v>7.62299985994968</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="C28">
+        <v>7.6229998599496804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="n">
-        <v>6.34534748020621</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="C29">
+        <v>6.3453474802062102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="n">
-        <v>7.52900837052061</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="C30">
+        <v>7.5290083705206099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="n">
-        <v>7.4709008506342</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="C31">
+        <v>7.4709008506341998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" t="n">
-        <v>4.12459562359621</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="C32">
+        <v>4.1245956235962096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="n">
-        <v>2.47345925903205</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="C33">
+        <v>2.4734592590320501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="n">
-        <v>6.20559458129861</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="C34">
+        <v>6.2055945812986097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C35" t="n">
-        <v>5.70416021953043</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="C35">
+        <v>5.7041602195304302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="n">
-        <v>4.41302967967956</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="C36">
+        <v>4.4130296796795596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="n">
-        <v>6.1500145793165</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="C37">
+        <v>6.1500145793165002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" t="n">
-        <v>5.38266726032647</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="C38">
+        <v>5.3826672603264702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" t="n">
-        <v>4.60352880986698</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="C39">
+        <v>4.6035288098669804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C40" t="n">
-        <v>6.43782674795097</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="C40">
+        <v>6.4378267479509699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41" t="n">
-        <v>5.76845375463976</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="C41">
+        <v>5.7684537546397596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" t="n">
-        <v>6.04856941800619</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="C42">
+        <v>6.0485694180061902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="n">
-        <v>4.88369048949162</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="C43">
+        <v>4.8836904894916202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" t="n">
-        <v>6.90617258293828</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="C44">
+        <v>6.9061725829382796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>7.00775354543795</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" t="n">
-        <v>6.05560356797305</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="C46">
+        <v>6.0556035679730504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" t="n">
-        <v>5.15096443357509</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="C47">
+        <v>5.1509644335750897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="C48" t="n">
-        <v>4.0966994438971</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="C48">
+        <v>4.0966994438970996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" t="n">
-        <v>4.78495086317823</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="C49">
+        <v>4.7849508631782296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" t="n">
-        <v>5.46629316725997</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C50">
+        <v>5.4662931672599697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51" t="n">
-        <v>2.82217046048579</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+      <c r="C51">
+        <v>2.8221704604857898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>4.7</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>5.9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>5.6</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.6</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CC3950-8DD1-8944-93A4-CC6288DFFE5E}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>538</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>287</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>591</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>138</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>381</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1498</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1628</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2411</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>142</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>